--- a/Lab09.xlsx
+++ b/Lab09.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humme\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Data-Analysis-Statistical-Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5658B2E-51FC-4D70-812B-7A08A761C9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F096C2-9FB2-4863-8ACD-510058659D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2004122-366C-4F1C-81C2-D0FDFFA34276}"/>
   </bookViews>
@@ -191,6 +191,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -198,14 +206,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% — акцент1" xfId="2" builtinId="32"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7487C2E-B370-4F06-A122-555EE71FC986}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,8 +628,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
       <c r="O1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -666,10 +666,10 @@
         <f>IF(H2, 0, 1)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="5">
         <f>1-((6*G47)/(45^3-45))</f>
         <v>3.7549407114624511E-2</v>
@@ -744,11 +744,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -784,9 +784,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -822,9 +822,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -930,10 +930,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="5">
         <f>(H47 - I47) / (0.5 * (45 * (45 - 1)))</f>
         <v>-9.0909090909090905E-3</v>
@@ -1008,11 +1008,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -1048,9 +1048,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -1086,9 +1086,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -1194,10 +1194,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="5">
         <f>M2 * SQRT((45 - 2)/(1 - M2^2))</f>
         <v>0.24640169807117696</v>
@@ -1237,10 +1237,10 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="5">
         <f>M9 * SQRT((2 * (2 * 45 + 5)) / (9 * 45 * (45 - 1)))</f>
         <v>-9.3870745180261116E-4</v>
@@ -1356,10 +1356,10 @@
       <c r="K20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="10"/>
       <c r="N20"/>
       <c r="O20"/>
     </row>
@@ -1400,22 +1400,22 @@
       <c r="K21" s="2">
         <v>0.9</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <f>TINV(1-K21, 45-1-1)</f>
         <v>1.6810707032025196</v>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11" t="s">
+      <c r="M21" s="9"/>
+      <c r="N21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="6">
         <f>M2</f>
         <v>3.7549407114624511E-2</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="12"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -1454,22 +1454,22 @@
       <c r="K22" s="2">
         <v>0.95</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <f>TINV(1-K22, 45-1-1)</f>
         <v>2.0166921992278248</v>
       </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11" t="s">
+      <c r="M22" s="9"/>
+      <c r="N22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="6">
         <f>M2</f>
         <v>3.7549407114624511E-2</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q22" s="12"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -1508,22 +1508,22 @@
       <c r="K23" s="2">
         <v>0.99</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <f>TINV(1-K23, 45-1-1)</f>
         <v>2.695102079157675</v>
       </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11" t="s">
+      <c r="M23" s="9"/>
+      <c r="N23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="6">
         <f>M2</f>
         <v>3.7549407114624511E-2</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -1769,17 +1769,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N30" s="11" t="s">
+      <c r="N30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="6">
         <f>M17</f>
         <v>-9.3870745180261116E-4</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="P30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q30" s="12"/>
+      <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -1815,17 +1815,17 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="N31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="6">
         <f>M17</f>
         <v>-9.3870745180261116E-4</v>
       </c>
-      <c r="P31" s="12" t="s">
+      <c r="P31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q31" s="12"/>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1861,17 +1861,17 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="N32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="6">
         <f>M17</f>
         <v>-9.3870745180261116E-4</v>
       </c>
-      <c r="P32" s="12" t="s">
+      <c r="P32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q32" s="12"/>
+      <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -2379,16 +2379,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K2:L2"/>
@@ -2396,6 +2386,16 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K11:M13"/>
     <mergeCell ref="K4:M6"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Lab09.xlsx
+++ b/Lab09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Data-Analysis-Statistical-Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F096C2-9FB2-4863-8ACD-510058659D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3DFD0A-1C25-4C21-B25B-6F222AA93914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2004122-366C-4F1C-81C2-D0FDFFA34276}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Студент</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Не значимо. Выборки не коррелируют</t>
+  </si>
+  <si>
+    <t>Не значимо. Выборки не тесно связаны</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -193,19 +196,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% — акцент1" xfId="2" builtinId="32"/>
@@ -576,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7487C2E-B370-4F06-A122-555EE71FC986}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,8 +643,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
       <c r="O1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -666,10 +681,10 @@
         <f>IF(H2, 0, 1)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="5">
         <f>1-((6*G47)/(45^3-45))</f>
         <v>3.7549407114624511E-2</v>
@@ -744,11 +759,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -784,9 +799,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -822,9 +837,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -930,10 +945,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="5">
         <f>(H47 - I47) / (0.5 * (45 * (45 - 1)))</f>
         <v>-9.0909090909090905E-3</v>
@@ -1008,11 +1023,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -1048,9 +1063,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -1086,9 +1101,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -1194,10 +1209,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="5">
         <f>M2 * SQRT((45 - 2)/(1 - M2^2))</f>
         <v>0.24640169807117696</v>
@@ -1237,10 +1252,10 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="5">
         <f>M9 * SQRT((2 * (2 * 45 + 5)) / (9 * 45 * (45 - 1)))</f>
         <v>-9.3870745180261116E-4</v>
@@ -1356,12 +1371,14 @@
       <c r="K20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="10"/>
-      <c r="N20"/>
-      <c r="O20"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -1400,22 +1417,22 @@
       <c r="K21" s="2">
         <v>0.9</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="12">
         <f>TINV(1-K21, 45-1-1)</f>
         <v>1.6810707032025196</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="7" t="s">
+      <c r="M21" s="12"/>
+      <c r="N21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="6">
-        <f>M2</f>
-        <v>3.7549407114624511E-2</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="8"/>
+      <c r="O21" s="15">
+        <f>M16</f>
+        <v>0.24640169807117696</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -1454,22 +1471,22 @@
       <c r="K22" s="2">
         <v>0.95</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="12">
         <f>TINV(1-K22, 45-1-1)</f>
         <v>2.0166921992278248</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="7" t="s">
+      <c r="M22" s="12"/>
+      <c r="N22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="6">
-        <f>M2</f>
-        <v>3.7549407114624511E-2</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="8"/>
+      <c r="O22" s="15">
+        <f>M16</f>
+        <v>0.24640169807117696</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="16"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -1508,22 +1525,22 @@
       <c r="K23" s="2">
         <v>0.99</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="12">
         <f>TINV(1-K23, 45-1-1)</f>
         <v>2.695102079157675</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="7" t="s">
+      <c r="M23" s="12"/>
+      <c r="N23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="6">
-        <f>M2</f>
-        <v>3.7549407114624511E-2</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="8"/>
+      <c r="O23" s="15">
+        <f>M16</f>
+        <v>0.24640169807117696</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -1776,10 +1793,10 @@
         <f>M17</f>
         <v>-9.3870745180261116E-4</v>
       </c>
-      <c r="P30" s="8" t="s">
+      <c r="P30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q30" s="8"/>
+      <c r="Q30" s="11"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -1822,10 +1839,10 @@
         <f>M17</f>
         <v>-9.3870745180261116E-4</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="P31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q31" s="8"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1868,10 +1885,10 @@
         <f>M17</f>
         <v>-9.3870745180261116E-4</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q32" s="8"/>
+      <c r="Q32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -2379,13 +2396,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K11:M13"/>
-    <mergeCell ref="K4:M6"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L22:M22"/>
@@ -2396,6 +2406,13 @@
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K11:M13"/>
+    <mergeCell ref="K4:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Lab09.xlsx
+++ b/Lab09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Data-Analysis-Statistical-Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3DFD0A-1C25-4C21-B25B-6F222AA93914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCAFB64-95E0-43F0-8927-5121F4F3B7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2004122-366C-4F1C-81C2-D0FDFFA34276}"/>
   </bookViews>
@@ -72,12 +72,6 @@
     <t>z-статистика Кендалла</t>
   </si>
   <si>
-    <t>Очень слабая отрицательная корреляция между переменными, порядок объектов по одному признаку почти не влияет на порядок по другому</t>
-  </si>
-  <si>
-    <t>Очень слабая положительная корреляция между переменными, порядок объектов по одному признаку почти не влияет на порядок по другому</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -92,12 +86,18 @@
   <si>
     <t>Не значимо. Выборки не тесно связаны</t>
   </si>
+  <si>
+    <t>Очень слабая положительная связь между переменными, порядок объектов по одному признаку почти не влияет на порядок по другому</t>
+  </si>
+  <si>
+    <t>Очень слабая отрицательная связь между переменными, порядок объектов по одному признаку почти не влияет на порядок по другому</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,26 +114,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -169,65 +156,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="60% — акцент1" xfId="2" builtinId="32"/>
-    <cellStyle name="60% — акцент2" xfId="3" builtinId="36"/>
-    <cellStyle name="60% — акцент4" xfId="4" builtinId="44"/>
-    <cellStyle name="60% — акцент6" xfId="5" builtinId="52"/>
-    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
+  <cellStyles count="5">
+    <cellStyle name="60% — акцент1" xfId="1" builtinId="32"/>
+    <cellStyle name="60% — акцент2" xfId="2" builtinId="36"/>
+    <cellStyle name="60% — акцент4" xfId="3" builtinId="44"/>
+    <cellStyle name="60% — акцент6" xfId="4" builtinId="52"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7487C2E-B370-4F06-A122-555EE71FC986}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +597,7 @@
     <col min="18" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,11 +625,13 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="O1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -674,23 +658,25 @@
         <v>1369</v>
       </c>
       <c r="H2" s="3">
-        <f>IF(OR(AND(D2&gt;E2, D3&gt;E3), AND(D2&lt;E2, D3&lt;E3)), 1, 0)</f>
+        <f>IF(OR(AND(D2&gt;=E2, D3&gt;=E3), AND(D2&lt;=E2, D3&lt;=E3)), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="I2" s="3">
         <f>IF(H2, 0, 1)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="5">
         <f>1-((6*G47)/(45^3-45))</f>
         <v>3.7549407114624511E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -701,31 +687,33 @@
         <v>53</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D46" si="0">_xlfn.RANK.EQ(B3, $B$2:$B$46, 0)</f>
+        <f>_xlfn.RANK.EQ(B3, $B$2:$B$46, 0)</f>
         <v>20</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E46" si="1">_xlfn.RANK.EQ(C3, $C$2:$C$46, 0)</f>
+        <f>_xlfn.RANK.EQ(C3, $C$2:$C$46, 0)</f>
         <v>35</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F46" si="2">D3-E3</f>
+        <f>D3-E3</f>
         <v>-15</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G45" si="3">F3^2</f>
+        <f>F3^2</f>
         <v>225</v>
       </c>
       <c r="H3" s="3">
-        <f>IF(OR(AND(D3&gt;E3, D4&gt;E4), AND(D3&lt;E3, D4&lt;E4)), 1, 0)</f>
+        <f t="shared" ref="H3:H46" si="0">IF(OR(AND(D3&gt;=E3, D4&gt;=E4), AND(D3&lt;=E3, D4&lt;=E4)), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I46" si="4">IF(H3, 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H3, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -736,36 +724,38 @@
         <v>47</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B4, $B$2:$B$46, 0)</f>
         <v>40</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C4, $C$2:$C$46, 0)</f>
         <v>42</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="2"/>
+        <f>D4-E4</f>
         <v>-2</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="3"/>
+        <f>F4^2</f>
         <v>4</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H46" si="5">IF(OR(AND(D4&gt;E4, D5&gt;E5), AND(D4&lt;E4, D5&lt;E5)), 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H4, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -776,34 +766,36 @@
         <v>97</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B5, $B$2:$B$46, 0)</f>
         <v>34</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C5, $C$2:$C$46, 0)</f>
         <v>4</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="2"/>
+        <f>D5-E5</f>
         <v>30</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="3"/>
+        <f>F5^2</f>
         <v>900</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H5, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -814,34 +806,36 @@
         <v>52</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B6, $B$2:$B$46, 0)</f>
         <v>16</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C6, $C$2:$C$46, 0)</f>
         <v>38</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="2"/>
+        <f>D6-E6</f>
         <v>-22</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="3"/>
+        <f>F6^2</f>
         <v>484</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H6, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -852,31 +846,33 @@
         <v>63</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B7, $B$2:$B$46, 0)</f>
         <v>38</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C7, $C$2:$C$46, 0)</f>
         <v>26</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="2"/>
+        <f>D7-E7</f>
         <v>12</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="3"/>
+        <f>F7^2</f>
         <v>144</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H7, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -887,31 +883,33 @@
         <v>64</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B8, $B$2:$B$46, 0)</f>
         <v>9</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C8, $C$2:$C$46, 0)</f>
         <v>25</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="2"/>
+        <f>D8-E8</f>
         <v>-16</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="3"/>
+        <f>F8^2</f>
         <v>256</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H8, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -922,39 +920,41 @@
         <v>98</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B9, $B$2:$B$46, 0)</f>
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C9, $C$2:$C$46, 0)</f>
         <v>2</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="2"/>
+        <f>D9-E9</f>
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="3"/>
+        <f>F9^2</f>
         <v>1</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="8" t="s">
+        <f>IF(H9, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="5">
         <f>(H47 - I47) / (0.5 * (45 * (45 - 1)))</f>
-        <v>-9.0909090909090905E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.0101010101010101E-3</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -965,31 +965,33 @@
         <v>81</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B10, $B$2:$B$46, 0)</f>
         <v>17</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C10, $C$2:$C$46, 0)</f>
         <v>14</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="2"/>
+        <f>D10-E10</f>
         <v>3</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="3"/>
+        <f>F10^2</f>
         <v>9</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H10, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1000,36 +1002,38 @@
         <v>63</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B11, $B$2:$B$46, 0)</f>
         <v>29</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C11, $C$2:$C$46, 0)</f>
         <v>26</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="2"/>
+        <f>D11-E11</f>
         <v>3</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="3"/>
+        <f>F11^2</f>
         <v>9</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H11, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1040,34 +1044,36 @@
         <v>59</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B12, $B$2:$B$46, 0)</f>
         <v>28</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C12, $C$2:$C$46, 0)</f>
         <v>32</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="2"/>
+        <f>D12-E12</f>
         <v>-4</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="3"/>
+        <f>F12^2</f>
         <v>16</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H12, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1078,34 +1084,36 @@
         <v>53</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B13, $B$2:$B$46, 0)</f>
         <v>19</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C13, $C$2:$C$46, 0)</f>
         <v>35</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="2"/>
+        <f>D13-E13</f>
         <v>-16</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="3"/>
+        <f>F13^2</f>
         <v>256</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H13, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1116,31 +1124,33 @@
         <v>100</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B14, $B$2:$B$46, 0)</f>
         <v>5</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C14, $C$2:$C$46, 0)</f>
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="2"/>
+        <f>D14-E14</f>
         <v>4</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="3"/>
+        <f>F14^2</f>
         <v>16</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H14, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1151,31 +1161,33 @@
         <v>83</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B15, $B$2:$B$46, 0)</f>
         <v>24</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C15, $C$2:$C$46, 0)</f>
         <v>12</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="2"/>
+        <f>D15-E15</f>
         <v>12</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="3"/>
+        <f>F15^2</f>
         <v>144</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(H15, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1186,37 +1198,39 @@
         <v>96</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B16, $B$2:$B$46, 0)</f>
         <v>24</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C16, $C$2:$C$46, 0)</f>
         <v>6</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="2"/>
+        <f>D16-E16</f>
         <v>18</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="3"/>
+        <f>F16^2</f>
         <v>324</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="8" t="s">
+        <f>IF(H16, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="9"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="5">
         <f>M2 * SQRT((45 - 2)/(1 - M2^2))</f>
         <v>0.24640169807117696</v>
       </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -1229,39 +1243,41 @@
         <v>62</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B17, $B$2:$B$46, 0)</f>
         <v>40</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C17, $C$2:$C$46, 0)</f>
         <v>28</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="2"/>
+        <f>D17-E17</f>
         <v>12</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="3"/>
+        <f>F17^2</f>
         <v>144</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="9" t="s">
+        <f>IF(H17, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="5">
         <f>M9 * SQRT((2 * (2 * 45 + 5)) / (9 * 45 * (45 - 1)))</f>
-        <v>-9.3870745180261116E-4</v>
-      </c>
-      <c r="N17"/>
-      <c r="O17"/>
+        <v>1.0430082797806792E-4</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
       <c r="R17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -1275,29 +1291,31 @@
         <v>46</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B18, $B$2:$B$46, 0)</f>
         <v>13</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C18, $C$2:$C$46, 0)</f>
         <v>45</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="2"/>
+        <f>D18-E18</f>
         <v>-32</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="3"/>
+        <f>F18^2</f>
         <v>1024</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+        <f>IF(H18, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -1310,29 +1328,31 @@
         <v>73</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B19, $B$2:$B$46, 0)</f>
         <v>30</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C19, $C$2:$C$46, 0)</f>
         <v>18</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="2"/>
+        <f>D19-E19</f>
         <v>12</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="3"/>
+        <f>F19^2</f>
         <v>144</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+        <f>IF(H19, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -1345,40 +1365,40 @@
         <v>47</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B20, $B$2:$B$46, 0)</f>
         <v>30</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C20, $C$2:$C$46, 0)</f>
         <v>42</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="2"/>
+        <f>D20-E20</f>
         <v>-12</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="3"/>
+        <f>F20^2</f>
         <v>144</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H20, 0, 1)</f>
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -1391,48 +1411,48 @@
         <v>79</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B21, $B$2:$B$46, 0)</f>
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C21, $C$2:$C$46, 0)</f>
         <v>15</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="2"/>
+        <f>D21-E21</f>
         <v>-7</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="3"/>
+        <f>F21^2</f>
         <v>49</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H21, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="K21" s="2">
         <v>0.9</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="8">
         <f>TINV(1-K21, 45-1-1)</f>
         <v>1.6810707032025196</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="15">
+      <c r="M21" s="8"/>
+      <c r="N21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="11">
         <f>M16</f>
         <v>0.24640169807117696</v>
       </c>
-      <c r="P21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="16"/>
+      <c r="P21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -1445,48 +1465,48 @@
         <v>92</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B22, $B$2:$B$46, 0)</f>
         <v>42</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C22, $C$2:$C$46, 0)</f>
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="2"/>
+        <f>D22-E22</f>
         <v>34</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="3"/>
+        <f>F22^2</f>
         <v>1156</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H22, 0, 1)</f>
         <v>1</v>
       </c>
       <c r="K22" s="2">
         <v>0.95</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="8">
         <f>TINV(1-K22, 45-1-1)</f>
         <v>2.0166921992278248</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="15">
+      <c r="M22" s="8"/>
+      <c r="N22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="11">
         <f>M16</f>
         <v>0.24640169807117696</v>
       </c>
-      <c r="P22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q22" s="16"/>
+      <c r="P22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -1499,48 +1519,48 @@
         <v>65</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B23, $B$2:$B$46, 0)</f>
         <v>10</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C23, $C$2:$C$46, 0)</f>
         <v>23</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="2"/>
+        <f>D23-E23</f>
         <v>-13</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="3"/>
+        <f>F23^2</f>
         <v>169</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(H23, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
         <v>0.99</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="8">
         <f>TINV(1-K23, 45-1-1)</f>
         <v>2.695102079157675</v>
       </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="15">
+      <c r="M23" s="8"/>
+      <c r="N23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="11">
         <f>M16</f>
         <v>0.24640169807117696</v>
       </c>
-      <c r="P23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="16"/>
+      <c r="P23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -1553,29 +1573,31 @@
         <v>53</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B24, $B$2:$B$46, 0)</f>
         <v>35</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C24, $C$2:$C$46, 0)</f>
         <v>35</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="2"/>
+        <f>D24-E24</f>
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="3"/>
+        <f>F24^2</f>
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+        <f>IF(H24, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -1588,29 +1610,31 @@
         <v>60</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B25, $B$2:$B$46, 0)</f>
         <v>5</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C25, $C$2:$C$46, 0)</f>
         <v>31</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="2"/>
+        <f>D25-E25</f>
         <v>-26</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="3"/>
+        <f>F25^2</f>
         <v>676</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+        <f>IF(H25, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1623,29 +1647,31 @@
         <v>52</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B26, $B$2:$B$46, 0)</f>
         <v>38</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C26, $C$2:$C$46, 0)</f>
         <v>38</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="2"/>
+        <f>D26-E26</f>
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="3"/>
+        <f>F26^2</f>
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+        <f>IF(H26, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -1658,29 +1684,31 @@
         <v>93</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B27, $B$2:$B$46, 0)</f>
         <v>12</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C27, $C$2:$C$46, 0)</f>
         <v>7</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="2"/>
+        <f>D27-E27</f>
         <v>5</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="3"/>
+        <f>F27^2</f>
         <v>25</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f>IF(H27, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1693,29 +1721,31 @@
         <v>70</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B28, $B$2:$B$46, 0)</f>
         <v>30</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C28, $C$2:$C$46, 0)</f>
         <v>21</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="2"/>
+        <f>D28-E28</f>
         <v>9</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="3"/>
+        <f>F28^2</f>
         <v>81</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f>IF(H28, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -1728,29 +1758,31 @@
         <v>58</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B29, $B$2:$B$46, 0)</f>
         <v>44</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C29, $C$2:$C$46, 0)</f>
         <v>33</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="2"/>
+        <f>D29-E29</f>
         <v>11</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="3"/>
+        <f>F29^2</f>
         <v>121</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+        <f>IF(H29, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1763,40 +1795,40 @@
         <v>65</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B30, $B$2:$B$46, 0)</f>
         <v>22</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C30, $C$2:$C$46, 0)</f>
         <v>23</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="2"/>
+        <f>D30-E30</f>
         <v>-1</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="3"/>
+        <f>F30^2</f>
         <v>1</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="6">
+        <f>IF(H30, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="11">
         <f>M17</f>
-        <v>-9.3870745180261116E-4</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q30" s="11"/>
+        <v>1.0430082797806792E-4</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -1809,40 +1841,40 @@
         <v>47</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B31, $B$2:$B$46, 0)</f>
         <v>1</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C31, $C$2:$C$46, 0)</f>
         <v>42</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="2"/>
+        <f>D31-E31</f>
         <v>-41</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="3"/>
+        <f>F31^2</f>
         <v>1681</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O31" s="6">
+        <f>IF(H31, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="11">
         <f>M17</f>
-        <v>-9.3870745180261116E-4</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q31" s="11"/>
+        <v>1.0430082797806792E-4</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1855,40 +1887,40 @@
         <v>97</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B32, $B$2:$B$46, 0)</f>
         <v>14</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C32, $C$2:$C$46, 0)</f>
         <v>4</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="2"/>
+        <f>D32-E32</f>
         <v>10</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="3"/>
+        <f>F32^2</f>
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O32" s="6">
+        <f>IF(H32, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O32" s="11">
         <f>M17</f>
-        <v>-9.3870745180261116E-4</v>
-      </c>
-      <c r="P32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q32" s="11"/>
+        <v>1.0430082797806792E-4</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -1901,27 +1933,27 @@
         <v>52</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B33, $B$2:$B$46, 0)</f>
         <v>23</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C33, $C$2:$C$46, 0)</f>
         <v>38</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="2"/>
+        <f>D33-E33</f>
         <v>-15</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="3"/>
+        <f>F33^2</f>
         <v>225</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H33, 0, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1936,27 +1968,27 @@
         <v>82</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B34, $B$2:$B$46, 0)</f>
         <v>36</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C34, $C$2:$C$46, 0)</f>
         <v>13</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="2"/>
+        <f>D34-E34</f>
         <v>23</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="3"/>
+        <f>F34^2</f>
         <v>529</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H34, 0, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1971,27 +2003,27 @@
         <v>86</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B35, $B$2:$B$46, 0)</f>
         <v>17</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C35, $C$2:$C$46, 0)</f>
         <v>11</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="2"/>
+        <f>D35-E35</f>
         <v>6</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="3"/>
+        <f>F35^2</f>
         <v>36</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H35, 0, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2006,27 +2038,27 @@
         <v>87</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B36, $B$2:$B$46, 0)</f>
         <v>20</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C36, $C$2:$C$46, 0)</f>
         <v>10</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="2"/>
+        <f>D36-E36</f>
         <v>10</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="3"/>
+        <f>F36^2</f>
         <v>100</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H36, 0, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2041,27 +2073,27 @@
         <v>89</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B37, $B$2:$B$46, 0)</f>
         <v>5</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C37, $C$2:$C$46, 0)</f>
         <v>9</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="2"/>
+        <f>D37-E37</f>
         <v>-4</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="3"/>
+        <f>F37^2</f>
         <v>16</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H37, 0, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2076,27 +2108,27 @@
         <v>61</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B38, $B$2:$B$46, 0)</f>
         <v>3</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C38, $C$2:$C$46, 0)</f>
         <v>30</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="2"/>
+        <f>D38-E38</f>
         <v>-27</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="3"/>
+        <f>F38^2</f>
         <v>729</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H38, 0, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2111,27 +2143,27 @@
         <v>72</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B39, $B$2:$B$46, 0)</f>
         <v>11</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C39, $C$2:$C$46, 0)</f>
         <v>19</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="2"/>
+        <f>D39-E39</f>
         <v>-8</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="3"/>
+        <f>F39^2</f>
         <v>64</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H39, 0, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2146,27 +2178,27 @@
         <v>74</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B40, $B$2:$B$46, 0)</f>
         <v>42</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C40, $C$2:$C$46, 0)</f>
         <v>17</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="2"/>
+        <f>D40-E40</f>
         <v>25</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="3"/>
+        <f>F40^2</f>
         <v>625</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H40, 0, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2181,27 +2213,27 @@
         <v>56</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B41, $B$2:$B$46, 0)</f>
         <v>24</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C41, $C$2:$C$46, 0)</f>
         <v>34</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="2"/>
+        <f>D41-E41</f>
         <v>-10</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="3"/>
+        <f>F41^2</f>
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H41, 0, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2216,27 +2248,27 @@
         <v>79</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B42, $B$2:$B$46, 0)</f>
         <v>24</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C42, $C$2:$C$46, 0)</f>
         <v>15</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="2"/>
+        <f>D42-E42</f>
         <v>9</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="3"/>
+        <f>F42^2</f>
         <v>81</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H42, 0, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2251,27 +2283,27 @@
         <v>72</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B43, $B$2:$B$46, 0)</f>
         <v>37</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C43, $C$2:$C$46, 0)</f>
         <v>19</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="2"/>
+        <f>D43-E43</f>
         <v>18</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="3"/>
+        <f>F43^2</f>
         <v>324</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H43, 0, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2286,27 +2318,27 @@
         <v>98</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B44, $B$2:$B$46, 0)</f>
         <v>45</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C44, $C$2:$C$46, 0)</f>
         <v>2</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="2"/>
+        <f>D44-E44</f>
         <v>43</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="3"/>
+        <f>F44^2</f>
         <v>1849</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H44, 0, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2321,27 +2353,27 @@
         <v>62</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B45, $B$2:$B$46, 0)</f>
         <v>14</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C45, $C$2:$C$46, 0)</f>
         <v>28</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="2"/>
+        <f>D45-E45</f>
         <v>-14</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="3"/>
+        <f>F45^2</f>
         <v>196</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(H45, 0, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2356,15 +2388,15 @@
         <v>67</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.EQ(B46, $B$2:$B$46, 0)</f>
         <v>30</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.RANK.EQ(C46, $C$2:$C$46, 0)</f>
         <v>22</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="2"/>
+        <f>D46-E46</f>
         <v>8</v>
       </c>
       <c r="G46" s="3">
@@ -2372,12 +2404,12 @@
         <v>64</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(H46, 0, 1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2387,11 +2419,11 @@
       </c>
       <c r="H47" s="5">
         <f>SUM(H2:H46)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I47" s="5">
         <f>SUM(I2:I46)</f>
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
